--- a/Tarea 4.xlsx
+++ b/Tarea 4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1687,7 +1687,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:G3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4528,7 +4528,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -11318,7 +11318,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -18126,7 +18126,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="B2:E4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -18188,16 +18188,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>115.2584477525045</v>
+        <v>115.2584626814688</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>0.9561967516779635</v>
+        <v>0.956148584252596</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.009562234506542734</v>
+        <v>0.009562241222955382</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.0001806537636677621</v>
+        <v>0.0001806461709289782</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="7" t="n"/>
@@ -18224,16 +18224,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="n">
-        <v>118.1856250521394</v>
+        <v>118.1868572254861</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>0.2717420581300506</v>
+        <v>0.2717655679805759</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.02490673902528644</v>
+        <v>0.02490668714136679</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.09832789338869194</v>
+        <v>0.09832873535248474</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="7" t="n"/>
@@ -18260,16 +18260,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="n">
-        <v>115.8555030915562</v>
+        <v>115.8551461625464</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>-9.854585457887914</v>
+        <v>-9.854266330431679</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.07273328754165745</v>
+        <v>0.07272336035177637</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.3783531617320866</v>
+        <v>0.3783483104547403</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="7" t="n"/>
@@ -25956,11 +25956,11 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -26021,10 +26021,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-57041.58766866666</v>
+        <v>-57041.38914919946</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-23080.43993820581</v>
+        <v>-23079.28038214273</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -26055,10 +26055,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>88.20871984138847</v>
+        <v>88.40203035598373</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-1242.235363731658</v>
+        <v>-1242.342931186774</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32529,7 +32529,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -32590,10 +32590,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>53134.19184963147</v>
+        <v>53134.20561414976</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>26571.90456917812</v>
+        <v>26571.91145268296</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -32624,10 +32624,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.40446664394481</v>
+        <v>10.41113857206406</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>104.0634985240737</v>
+        <v>104.130229881456</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32658,10 +32658,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>963.2869896980937</v>
+        <v>963.3070757743957</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-2408.235536011754</v>
+        <v>-2408.285751579127</v>
       </c>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
@@ -32692,10 +32692,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>215.4701547331178</v>
+        <v>215.4630223936122</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>10.77545774155622</v>
+        <v>10.77510106003327</v>
       </c>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
@@ -39111,7 +39111,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -39159,22 +39159,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="n">
-        <v>-56947.37894882527</v>
+        <v>-56952.98711884348</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>-24322.67530193747</v>
+        <v>-24321.6233133295</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>56953.00662972117</v>
+        <v>56952.98711884369</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>25346.99008162551</v>
+        <v>25346.95109254699</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>-113906.3856</v>
+        <v>-113905.9742376872</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>-49669.6654</v>
+        <v>-49668.57440587649</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
